--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il4-Cd53.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il4-Cd53.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6936916564088</v>
+        <v>0.7922663333333334</v>
       </c>
       <c r="H2">
-        <v>0.6936916564088</v>
+        <v>2.376799</v>
       </c>
       <c r="I2">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="J2">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.227712855101275</v>
+        <v>0.328017</v>
       </c>
       <c r="N2">
-        <v>0.227712855101275</v>
+        <v>0.984051</v>
       </c>
       <c r="O2">
-        <v>0.001370228483876184</v>
+        <v>0.001744649556355686</v>
       </c>
       <c r="P2">
-        <v>0.001370228483876184</v>
+        <v>0.001744649556355686</v>
       </c>
       <c r="Q2">
-        <v>0.1579625076407805</v>
+        <v>0.259876825861</v>
       </c>
       <c r="R2">
-        <v>0.1579625076407805</v>
+        <v>2.338891432749</v>
       </c>
       <c r="S2">
-        <v>0.0002384082615900298</v>
+        <v>0.0003069863924244001</v>
       </c>
       <c r="T2">
-        <v>0.0002384082615900298</v>
+        <v>0.0003069863924244001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,57 +593,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6936916564088</v>
+        <v>0.7922663333333334</v>
       </c>
       <c r="H3">
-        <v>0.6936916564088</v>
+        <v>2.376799</v>
       </c>
       <c r="I3">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="J3">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>165.958334056657</v>
+        <v>185.1323926666666</v>
       </c>
       <c r="N3">
-        <v>165.958334056657</v>
+        <v>555.3971779999999</v>
       </c>
       <c r="O3">
-        <v>0.9986297715161238</v>
+        <v>0.9846780707492804</v>
       </c>
       <c r="P3">
-        <v>0.9986297715161238</v>
+        <v>0.9846780707492802</v>
       </c>
       <c r="Q3">
-        <v>115.1239116466074</v>
+        <v>146.6741619192469</v>
       </c>
       <c r="R3">
-        <v>115.1239116466074</v>
+        <v>1320.067457273222</v>
       </c>
       <c r="S3">
-        <v>0.17375320291526</v>
+        <v>0.1732627435335286</v>
       </c>
       <c r="T3">
-        <v>0.17375320291526</v>
+        <v>0.1732627435335286</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.06030720464197</v>
+        <v>0.7922663333333334</v>
       </c>
       <c r="H4">
-        <v>2.06030720464197</v>
+        <v>2.376799</v>
       </c>
       <c r="I4">
-        <v>0.5167658667119307</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="J4">
-        <v>0.5167658667119307</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.227712855101275</v>
+        <v>2.552706666666667</v>
       </c>
       <c r="N4">
-        <v>0.227712855101275</v>
+        <v>7.65812</v>
       </c>
       <c r="O4">
-        <v>0.001370228483876184</v>
+        <v>0.01357727969436402</v>
       </c>
       <c r="P4">
-        <v>0.001370228483876184</v>
+        <v>0.01357727969436402</v>
       </c>
       <c r="Q4">
-        <v>0.4691584359547499</v>
+        <v>2.022423550875556</v>
       </c>
       <c r="R4">
-        <v>0.4691584359547499</v>
+        <v>18.20181195788</v>
       </c>
       <c r="S4">
-        <v>0.0007080873100636512</v>
+        <v>0.002389041453698179</v>
       </c>
       <c r="T4">
-        <v>0.0007080873100636512</v>
+        <v>0.002389041453698179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.06030720464197</v>
+        <v>2.077831666666667</v>
       </c>
       <c r="H5">
-        <v>2.06030720464197</v>
+        <v>6.233495</v>
       </c>
       <c r="I5">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="J5">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>165.958334056657</v>
+        <v>0.328017</v>
       </c>
       <c r="N5">
-        <v>165.958334056657</v>
+        <v>0.984051</v>
       </c>
       <c r="O5">
-        <v>0.9986297715161238</v>
+        <v>0.001744649556355686</v>
       </c>
       <c r="P5">
-        <v>0.9986297715161238</v>
+        <v>0.001744649556355686</v>
       </c>
       <c r="Q5">
-        <v>341.9251513273093</v>
+        <v>0.6815641098050002</v>
       </c>
       <c r="R5">
-        <v>341.9251513273093</v>
+        <v>6.134076988245001</v>
       </c>
       <c r="S5">
-        <v>0.516057779401867</v>
+        <v>0.0008051156796369974</v>
       </c>
       <c r="T5">
-        <v>0.516057779401867</v>
+        <v>0.0008051156796369974</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.686366068743921</v>
+        <v>2.077831666666667</v>
       </c>
       <c r="H6">
-        <v>0.686366068743921</v>
+        <v>6.233495</v>
       </c>
       <c r="I6">
-        <v>0.1721542086524662</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="J6">
-        <v>0.1721542086524662</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.227712855101275</v>
+        <v>185.1323926666666</v>
       </c>
       <c r="N6">
-        <v>0.227712855101275</v>
+        <v>555.3971779999999</v>
       </c>
       <c r="O6">
-        <v>0.001370228483876184</v>
+        <v>0.9846780707492804</v>
       </c>
       <c r="P6">
-        <v>0.001370228483876184</v>
+        <v>0.9846780707492802</v>
       </c>
       <c r="Q6">
-        <v>0.1562943771583163</v>
+        <v>384.6739480085678</v>
       </c>
       <c r="R6">
-        <v>0.1562943771583163</v>
+        <v>3462.06553207711</v>
       </c>
       <c r="S6">
-        <v>0.000235890600314773</v>
+        <v>0.454406302553364</v>
       </c>
       <c r="T6">
-        <v>0.000235890600314773</v>
+        <v>0.4544063025533639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.686366068743921</v>
+        <v>2.077831666666667</v>
       </c>
       <c r="H7">
-        <v>0.686366068743921</v>
+        <v>6.233495</v>
       </c>
       <c r="I7">
-        <v>0.1721542086524662</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="J7">
-        <v>0.1721542086524662</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>165.958334056657</v>
+        <v>2.552706666666667</v>
       </c>
       <c r="N7">
-        <v>165.958334056657</v>
+        <v>7.65812</v>
       </c>
       <c r="O7">
-        <v>0.9986297715161238</v>
+        <v>0.01357727969436402</v>
       </c>
       <c r="P7">
-        <v>0.9986297715161238</v>
+        <v>0.01357727969436402</v>
       </c>
       <c r="Q7">
-        <v>113.9081693217581</v>
+        <v>5.304094747711113</v>
       </c>
       <c r="R7">
-        <v>113.9081693217581</v>
+        <v>47.73685272940001</v>
       </c>
       <c r="S7">
-        <v>0.1719183180521514</v>
+        <v>0.006265602584156394</v>
       </c>
       <c r="T7">
-        <v>0.1719183180521514</v>
+        <v>0.006265602584156393</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5465609439114389</v>
+        <v>0.8480786666666668</v>
       </c>
       <c r="H8">
-        <v>0.5465609439114389</v>
+        <v>2.544236</v>
       </c>
       <c r="I8">
-        <v>0.1370883134587531</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="J8">
-        <v>0.1370883134587531</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.227712855101275</v>
+        <v>0.328017</v>
       </c>
       <c r="N8">
-        <v>0.227712855101275</v>
+        <v>0.984051</v>
       </c>
       <c r="O8">
-        <v>0.001370228483876184</v>
+        <v>0.001744649556355686</v>
       </c>
       <c r="P8">
-        <v>0.001370228483876184</v>
+        <v>0.001744649556355686</v>
       </c>
       <c r="Q8">
-        <v>0.1244589530249216</v>
+        <v>0.2781842200040001</v>
       </c>
       <c r="R8">
-        <v>0.1244589530249216</v>
+        <v>2.503657980036</v>
       </c>
       <c r="S8">
-        <v>0.0001878423119077304</v>
+        <v>0.0003286124872638729</v>
       </c>
       <c r="T8">
-        <v>0.0001878423119077304</v>
+        <v>0.000328612487263873</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,300 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5465609439114389</v>
+        <v>0.8480786666666668</v>
       </c>
       <c r="H9">
-        <v>0.5465609439114389</v>
+        <v>2.544236</v>
       </c>
       <c r="I9">
-        <v>0.1370883134587531</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="J9">
-        <v>0.1370883134587531</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>165.958334056657</v>
+        <v>185.1323926666666</v>
       </c>
       <c r="N9">
-        <v>165.958334056657</v>
+        <v>555.3971779999999</v>
       </c>
       <c r="O9">
-        <v>0.9986297715161238</v>
+        <v>0.9846780707492804</v>
       </c>
       <c r="P9">
-        <v>0.9986297715161238</v>
+        <v>0.9846780707492802</v>
       </c>
       <c r="Q9">
-        <v>90.70634371197636</v>
+        <v>157.0068327295564</v>
       </c>
       <c r="R9">
-        <v>90.70634371197636</v>
+        <v>1413.061494566008</v>
       </c>
       <c r="S9">
-        <v>0.1369004711468453</v>
+        <v>0.1854684849483573</v>
       </c>
       <c r="T9">
-        <v>0.1369004711468453</v>
+        <v>0.1854684849483573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8480786666666668</v>
+      </c>
+      <c r="H10">
+        <v>2.544236</v>
+      </c>
+      <c r="I10">
+        <v>0.1883544383264543</v>
+      </c>
+      <c r="J10">
+        <v>0.1883544383264543</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>2.552706666666667</v>
+      </c>
+      <c r="N10">
+        <v>7.65812</v>
+      </c>
+      <c r="O10">
+        <v>0.01357727969436402</v>
+      </c>
+      <c r="P10">
+        <v>0.01357727969436402</v>
+      </c>
+      <c r="Q10">
+        <v>2.164896066257778</v>
+      </c>
+      <c r="R10">
+        <v>19.48406459632</v>
+      </c>
+      <c r="S10">
+        <v>0.002557340890833108</v>
+      </c>
+      <c r="T10">
+        <v>0.002557340890833108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7843913333333336</v>
+      </c>
+      <c r="H11">
+        <v>2.353174000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.1742097694767371</v>
+      </c>
+      <c r="J11">
+        <v>0.1742097694767372</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.328017</v>
+      </c>
+      <c r="N11">
+        <v>0.984051</v>
+      </c>
+      <c r="O11">
+        <v>0.001744649556355686</v>
+      </c>
+      <c r="P11">
+        <v>0.001744649556355686</v>
+      </c>
+      <c r="Q11">
+        <v>0.2572936919860001</v>
+      </c>
+      <c r="R11">
+        <v>2.315643227874001</v>
+      </c>
+      <c r="S11">
+        <v>0.0003039349970304159</v>
+      </c>
+      <c r="T11">
+        <v>0.0003039349970304159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7843913333333336</v>
+      </c>
+      <c r="H12">
+        <v>2.353174000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.1742097694767371</v>
+      </c>
+      <c r="J12">
+        <v>0.1742097694767372</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>185.1323926666666</v>
+      </c>
+      <c r="N12">
+        <v>555.3971779999999</v>
+      </c>
+      <c r="O12">
+        <v>0.9846780707492804</v>
+      </c>
+      <c r="P12">
+        <v>0.9846780707492802</v>
+      </c>
+      <c r="Q12">
+        <v>145.2162443269969</v>
+      </c>
+      <c r="R12">
+        <v>1306.946198942972</v>
+      </c>
+      <c r="S12">
+        <v>0.1715405397140304</v>
+      </c>
+      <c r="T12">
+        <v>0.1715405397140304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7843913333333336</v>
+      </c>
+      <c r="H13">
+        <v>2.353174000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.1742097694767371</v>
+      </c>
+      <c r="J13">
+        <v>0.1742097694767372</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>2.552706666666667</v>
+      </c>
+      <c r="N13">
+        <v>7.65812</v>
+      </c>
+      <c r="O13">
+        <v>0.01357727969436402</v>
+      </c>
+      <c r="P13">
+        <v>0.01357727969436402</v>
+      </c>
+      <c r="Q13">
+        <v>2.002320985875556</v>
+      </c>
+      <c r="R13">
+        <v>18.02088887288</v>
+      </c>
+      <c r="S13">
+        <v>0.00236529476567634</v>
+      </c>
+      <c r="T13">
+        <v>0.00236529476567634</v>
       </c>
     </row>
   </sheetData>
